--- a/gradesRakibHossain.xlsx
+++ b/gradesRakibHossain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu_s8uy48a\Dropbox\studentRepos (2)\RakibHossain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED24C94-D1B0-42E4-B41A-F347A6B2FCA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89CA5E2-9A11-48A9-AD17-9410BF20A6D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="735" windowWidth="27660" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27660" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +544,7 @@
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2" si="0">0.34*C2 + 0.33*D2 + 0.33*E2</f>
-        <v>66</v>
+        <v>69.300000000000011</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2" si="1">H2</f>
@@ -552,7 +552,7 @@
       </c>
       <c r="E2" s="4">
         <f t="shared" ref="E2" si="2">I2</f>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -560,7 +560,7 @@
         <v>100</v>
       </c>
       <c r="I2" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/gradesRakibHossain.xlsx
+++ b/gradesRakibHossain.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu_s8uy48a\Dropbox\studentRepos (2)\RakibHossain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anoop\Dropbox\studentRepos\RakibHossain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89CA5E2-9A11-48A9-AD17-9410BF20A6D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0415FF4-7183-4037-BA69-DB0B862B0370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="27660" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,17 +499,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2"/>
+      <selection pane="topRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -538,7 +538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -554,7 +554,9 @@
         <f t="shared" ref="E2" si="2">I2</f>
         <v>110</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>100</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2">
         <v>100</v>

--- a/gradesRakibHossain.xlsx
+++ b/gradesRakibHossain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anoop\Dropbox\studentRepos\RakibHossain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0415FF4-7183-4037-BA69-DB0B862B0370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491E3624-A785-4D20-808E-88E52FECE500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>HW 1</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Rakib Hossain</t>
+  </si>
+  <si>
+    <t>HW 3</t>
+  </si>
+  <si>
+    <t>Quiz 3</t>
   </si>
 </sst>
 </file>
@@ -495,21 +501,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F2" sqref="F2"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -526,42 +532,54 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2" si="0">0.34*C2 + 0.33*D2 + 0.33*E2</f>
-        <v>69.300000000000011</v>
+        <v>66.275000000000006</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2" si="1">H2</f>
-        <v>100</v>
+        <f>AVERAGE(F2,H2,J2)</f>
+        <v>98.333333333333329</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2" si="2">I2</f>
-        <v>110</v>
+        <f>AVERAGE(G2,I2,K2)</f>
+        <v>102.5</v>
       </c>
       <c r="F2" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2">
         <v>100</v>
       </c>
       <c r="I2" s="2">
+        <v>95</v>
+      </c>
+      <c r="J2" s="2">
+        <v>100</v>
+      </c>
+      <c r="K2" s="2">
         <v>110</v>
       </c>
     </row>

--- a/gradesRakibHossain.xlsx
+++ b/gradesRakibHossain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anoop\Dropbox\studentRepos\RakibHossain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491E3624-A785-4D20-808E-88E52FECE500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DD7EBE-919C-4018-A7A5-8495863BF2B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2" si="0">0.34*C2 + 0.33*D2 + 0.33*E2</f>
-        <v>66.275000000000006</v>
+        <v>63.800000000000004</v>
       </c>
       <c r="D2" s="4">
         <f>AVERAGE(F2,H2,J2)</f>
@@ -564,12 +564,14 @@
       </c>
       <c r="E2" s="4">
         <f>AVERAGE(G2,I2,K2)</f>
-        <v>102.5</v>
+        <v>95</v>
       </c>
       <c r="F2" s="2">
         <v>95</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>80</v>
+      </c>
       <c r="H2" s="2">
         <v>100</v>
       </c>

--- a/gradesRakibHossain.xlsx
+++ b/gradesRakibHossain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anoop\Dropbox\studentRepos\RakibHossain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DD7EBE-919C-4018-A7A5-8495863BF2B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33EBF1E-B15E-4409-A3B7-6AA3CBF6479A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>HW 1</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Quiz 3</t>
+  </si>
+  <si>
+    <t>HW 4</t>
+  </si>
+  <si>
+    <t>Quiz 4</t>
   </si>
 </sst>
 </file>
@@ -501,21 +507,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -532,56 +538,68 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2" si="0">0.34*C2 + 0.33*D2 + 0.33*E2</f>
-        <v>63.800000000000004</v>
+        <v>61.71</v>
       </c>
       <c r="D2" s="4">
-        <f>AVERAGE(F2,H2,J2)</f>
-        <v>98.333333333333329</v>
+        <f>AVERAGE(H2,J2,L2,F2)</f>
+        <v>93.75</v>
       </c>
       <c r="E2" s="4">
-        <f>AVERAGE(G2,I2,K2)</f>
+        <f>AVERAGE(I2,K2,M2,G2)</f>
+        <v>93.25</v>
+      </c>
+      <c r="F2" s="2">
+        <v>80</v>
+      </c>
+      <c r="G2" s="2">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2">
         <v>95</v>
       </c>
-      <c r="F2" s="2">
-        <v>95</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="I2" s="2">
         <v>80</v>
-      </c>
-      <c r="H2" s="2">
-        <v>100</v>
-      </c>
-      <c r="I2" s="2">
-        <v>95</v>
       </c>
       <c r="J2" s="2">
         <v>100</v>
       </c>
       <c r="K2" s="2">
+        <v>95</v>
+      </c>
+      <c r="L2" s="2">
+        <v>100</v>
+      </c>
+      <c r="M2" s="2">
         <v>110</v>
       </c>
     </row>
